--- a/biology/Biochimie/EC_3.5/EC_3.5.xlsx
+++ b/biology/Biochimie/EC_3.5/EC_3.5.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le groupe EC3.5 rassemble des enzymes appartenant à la famille des hydrolases. Elles ont pour particularité de catalyser des réactions d'hydrolyse dans des molécules possédant un carbone et un azote liés par liaison simple, double ou triple.
 À la différence des peptidases (groupe EC3.4), ces enzymes n'interviennent pas sur les liaisons peptidiques mais sur les groupements attachés à un atome d'azote non peptidique ou sur des bases nucléotidiques. Elles jouent un rôle principalement dans la régulation de la biosynthèse des protéines et dans le métabolisme de certains acides aminés.
@@ -535,7 +547,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">EC 3.5.1 : Enzymes spécifiques des amides linéaires (liaison C-N linéaire)
+          <t>EC 3.5.1 : Enzymes spécifiques des amides linéaires (liaison C-N linéaire)</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.5.1
 EC 3.5.1.1 : asparaginase
 EC 3.5.1.2 : glutaminase
@@ -638,7 +656,43 @@
 EC 3.5.1.99 : amide d'acide gras-hydrolase
 EC 3.5.1.100 : (R)-amidase
 EC 3.5.1.101 : L-prolinamide-hydrolase
-EC 3.5.2 : Enzymes spécifiques des amides cycliques (liaison C-N cyclique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>EC_3.5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.5</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3.5</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>EC 3.5.2 : Enzymes spécifiques des amides cycliques (liaison C-N cyclique)</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.5.2
 EC 3.5.2.1 : barbiturase
 EC 3.5.2.2 : dihydropyrimidinase
@@ -658,7 +712,43 @@
 EC 3.5.2.16 : maléimide-hydrolase
 EC 3.5.2.17 : hydroxyisourate-hydrolase
 EC 3.5.2.18 : énamidase
-EC 3.5.3 : Déiminases (enzymes spécifiques des amidines linéaires) (liaison C=N linéaire)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>EC_3.5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.5</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3.5</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>EC 3.5.3 : Déiminases (enzymes spécifiques des amidines linéaires) (liaison C=N linéaire)</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.5.3
 EC 3.5.3.1 : arginase
 EC 3.5.3.2 : guanidinoacétase
@@ -683,7 +773,43 @@
 EC 3.5.3.21 : méthylènediurée-désaminase
 EC 3.5.3.22 : proclavaminate-amidinohydrolase
 EC 3.5.3.23 : N-succinylarginine-dihydrolase
-EC 3.5.4 : Enzymes spécifiques des amidines cycliques (liaison C=N cyclique)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>EC_3.5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.5</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3.5</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>EC 3.5.4 : Enzymes spécifiques des amidines cycliques (liaison C=N cyclique)</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.5.4
 EC 3.5.4.1 : cytosine-désaminase
 EC 3.5.4.2 : adénine-désaminase
@@ -715,7 +841,43 @@
 EC 3.5.4.28 : S-adénosylhomocystéine-désaminase
 EC 3.5.4.29 : GTP-cyclohydrolase IIa
 EC 3.5.4.30 : dCTP-désaminase (formatrice de dUMP)
-EC 3.5.5 : Nitrilases (enzymes spécifiques des nitriles) (liaison C≡N)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>EC_3.5</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.5</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3.5</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>EC 3.5.5 : Nitrilases (enzymes spécifiques des nitriles) (liaison C≡N)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.5.5
 EC 3.5.5.1 : nitrilase
 EC 3.5.5.2 : ricinine-nitrilase
@@ -725,7 +887,43 @@
 EC 3.5.5.6 : bromoxynil-nitrilase
 EC 3.5.5.7 : nitrilase aliphatique
 EC 3.5.5.8 : thiocyanate-hydrolase
-EC 3.5.99 : Autres enzymes
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>EC_3.5</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Biochimie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/EC_3.5</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Classification des enzymes du groupe EC3.5</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>EC 3.5.99 : Autres enzymes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Liste des enzymes du groupe EC3.5.99
 EC 3.5.99.1 : riboflavinase
 EC 3.5.99.2 : thiaminase
